--- a/data/Sample Celebrity_test.xlsx
+++ b/data/Sample Celebrity_test.xlsx
@@ -112,19 +112,19 @@
     <t>2PM 준케이</t>
   </si>
   <si>
-    <t>김도균</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>264</t>
+    <t>82메이저 김도균</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>288</t>
   </si>
   <si>
     <t>OK</t>
@@ -631,7 +631,7 @@
         <v>25.97872340425532</v>
       </c>
       <c r="P2">
-        <v>18.5531914893617</v>
+        <v>18.53191489361702</v>
       </c>
       <c r="Q2">
         <v>94369</v>
@@ -687,16 +687,16 @@
         <v>45907</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G3">
-        <v>2883.454545454545</v>
+        <v>1566.25</v>
       </c>
       <c r="H3">
-        <v>80.27272727272727</v>
+        <v>41.25</v>
       </c>
       <c r="I3">
-        <v>29.72727272727273</v>
+        <v>14.53571428571429</v>
       </c>
       <c r="J3">
         <v>17443</v>
@@ -708,46 +708,46 @@
         <v>284</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N3">
-        <v>1033.833333333333</v>
+        <v>1173.75</v>
       </c>
       <c r="O3">
-        <v>24.5</v>
+        <v>21.8125</v>
       </c>
       <c r="P3">
-        <v>10.5</v>
+        <v>9.0625</v>
       </c>
       <c r="Q3">
-        <v>2825</v>
+        <v>3811</v>
       </c>
       <c r="R3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S3">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>920.5</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1236</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="s">
         <v>34</v>
@@ -773,58 +773,58 @@
         <v>45907</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="G4">
-        <v>1650.75</v>
+        <v>5451.68</v>
       </c>
       <c r="H4">
-        <v>54.83333333333334</v>
+        <v>69.5</v>
       </c>
       <c r="I4">
-        <v>17.41666666666667</v>
+        <v>21.9</v>
       </c>
       <c r="J4">
-        <v>16134</v>
+        <v>138414</v>
       </c>
       <c r="K4">
         <v>727</v>
       </c>
       <c r="L4">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N4">
-        <v>1481.375</v>
+        <v>3017.769230769231</v>
       </c>
       <c r="O4">
-        <v>33.875</v>
+        <v>57.84615384615385</v>
       </c>
       <c r="P4">
-        <v>10.625</v>
+        <v>14.88461538461539</v>
       </c>
       <c r="Q4">
-        <v>3528</v>
+        <v>18005</v>
       </c>
       <c r="R4">
-        <v>108</v>
+        <v>360</v>
       </c>
       <c r="S4">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="T4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="U4">
-        <v>3303.875</v>
+        <v>2179.866666666667</v>
       </c>
       <c r="V4">
-        <v>121.125</v>
+        <v>70.53333333333333</v>
       </c>
       <c r="W4">
-        <v>40</v>
+        <v>22.06666666666667</v>
       </c>
       <c r="X4">
         <v>19674</v>
@@ -859,67 +859,67 @@
         <v>45403</v>
       </c>
       <c r="F5">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>3036.826086956522</v>
+        <v>1097.5</v>
       </c>
       <c r="H5">
-        <v>74.43478260869566</v>
+        <v>0.5</v>
       </c>
       <c r="I5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>26646</v>
+        <v>1451</v>
       </c>
       <c r="K5">
-        <v>893</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>1958.186046511628</v>
+        <v>920.6666666666666</v>
       </c>
       <c r="O5">
-        <v>30.27906976744186</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P5">
-        <v>7.511627906976744</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>39880</v>
+        <v>1271</v>
       </c>
       <c r="R5">
-        <v>864</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>443.6046511627907</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>4.744186046511628</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>2.162790697674418</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>4743</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="s">
         <v>36</v>
